--- a/Proyectos/2017/8/P2500 - RNCFAC,Eustreberto_AG/Compras/P2500 - RNCFAC,Eustreberto_AG.xlsx
+++ b/Proyectos/2017/8/P2500 - RNCFAC,Eustreberto_AG/Compras/P2500 - RNCFAC,Eustreberto_AG.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volúmen\Documents\SOSQTP2\Proyectos\2017\8\P2500 - RNCFAC,Eustreberto_AG\Compras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'FTO PEDIDO 2015'!$A$1:$U$45</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -992,11 +997,29 @@
   <si>
     <t>Judith Adriana Jaramillo Chávez</t>
   </si>
+  <si>
+    <t>FACT ELECTRONICA ANUAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>D599</t>
+  </si>
+  <si>
+    <t>86D6</t>
+  </si>
+  <si>
+    <t>3748</t>
+  </si>
+  <si>
+    <t>9F83</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
@@ -3355,6 +3378,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3376,7 +3402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3451,7 +3483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3484,9 +3516,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3519,6 +3568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3700,8 +3766,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:T12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4129,7 +4195,7 @@
       </c>
       <c r="S14" s="146">
         <f ca="1">TODAY()</f>
-        <v>42436</v>
+        <v>42951</v>
       </c>
       <c r="T14" s="147"/>
       <c r="U14" s="112"/>
@@ -4394,42 +4460,64 @@
       <c r="U22" s="112"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="177"/>
       <c r="B23" s="69">
-        <v>0</v>
-      </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="40"/>
+        <v>109</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="83"/>
+      <c r="K23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="83" t="s">
+        <v>113</v>
+      </c>
       <c r="P23" s="44">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="S23" s="73">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>0</v>
+        <v>1847.9999999999998</v>
       </c>
       <c r="U23" s="112"/>
     </row>
@@ -4898,7 +4986,7 @@
       <c r="O36" s="195"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q36" s="52"/>
       <c r="R36" s="152" t="s">
@@ -4907,7 +4995,7 @@
       <c r="S36" s="153"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>0</v>
+        <v>1847.9999999999998</v>
       </c>
       <c r="U36" s="112"/>
     </row>
@@ -4937,7 +5025,7 @@
       <c r="O37" s="197"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q37" s="78" t="s">
         <v>46</v>
@@ -4948,7 +5036,7 @@
       <c r="S37" s="153"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>0</v>
+        <v>295.67999999999995</v>
       </c>
       <c r="U37" s="112"/>
     </row>
@@ -5007,7 +5095,7 @@
       <c r="S39" s="157"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>0</v>
+        <v>2143.6799999999998</v>
       </c>
       <c r="U39" s="112"/>
     </row>
